--- a/Excel/Target/sample.xlsx
+++ b/Excel/Target/sample.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06917A0E-C1A8-4374-9417-F4722F2C1C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhr_\Documents\repos\studynote\Excel\Target\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D3498-6B4F-4B1C-8455-A74CF261B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
